--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_10</t>
+          <t>model_16_9_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9851893397798287</v>
+        <v>0.9913902239884693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7938749337648215</v>
+        <v>0.7807632037382887</v>
       </c>
       <c r="D2" t="n">
-        <v>0.973347467230655</v>
+        <v>0.6693716509266059</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9783472867867168</v>
+        <v>0.9485121578151583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9777987710824008</v>
+        <v>0.9235787538716346</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09903895308910503</v>
+        <v>0.05757361183347896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.378359267033297</v>
+        <v>1.466037466094687</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08177160745560065</v>
+        <v>0.1699940754319264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4894276560201621</v>
+        <v>0.1213610953712182</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2855996317378814</v>
+        <v>0.1456775854015723</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4806017746569126</v>
+        <v>0.1714373981791835</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3147045488853077</v>
+        <v>0.2399450183552035</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007254200924166</v>
+        <v>1.004217033148505</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3281021730595799</v>
+        <v>0.2501599745412466</v>
       </c>
       <c r="P2" t="n">
-        <v>150.6244840813766</v>
+        <v>151.7093818882879</v>
       </c>
       <c r="Q2" t="n">
-        <v>239.6024192967552</v>
+        <v>240.6873171036665</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_9</t>
+          <t>model_16_9_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9851730479090139</v>
+        <v>0.9914751487660968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7938635729672965</v>
+        <v>0.7807542731192912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9747170108813382</v>
+        <v>0.6599525011703298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9786290855161665</v>
+        <v>0.9465498755282089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9782096630335172</v>
+        <v>0.9210952954482985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09914789690426035</v>
+        <v>0.05700571945444153</v>
       </c>
       <c r="H3" t="n">
-        <v>1.378435236738659</v>
+        <v>1.466097185185045</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07756976342200908</v>
+        <v>0.1748369742899961</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4830580112432937</v>
+        <v>0.1259863567468411</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2803138617312539</v>
+        <v>0.1504116645338219</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4820323379600851</v>
+        <v>0.1776312674432403</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3148775903494251</v>
+        <v>0.2387587055050381</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007262180615993</v>
+        <v>1.004175437339055</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3282825812570699</v>
+        <v>0.2489231578970435</v>
       </c>
       <c r="P3" t="n">
-        <v>150.6222852709887</v>
+        <v>151.7292073497509</v>
       </c>
       <c r="Q3" t="n">
-        <v>239.6002204863673</v>
+        <v>240.7071425651295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_11</t>
+          <t>model_16_9_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9851746522008029</v>
+        <v>0.9912415861523387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7938562983793116</v>
+        <v>0.780722890793335</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9720816845802583</v>
+        <v>0.6790610182946142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9780891169232715</v>
+        <v>0.9505829504737999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9774210383902247</v>
+        <v>0.926165741375213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09913716899768034</v>
+        <v>0.05856755372809862</v>
       </c>
       <c r="H4" t="n">
-        <v>1.37848388194201</v>
+        <v>1.466307038943216</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08565510636762144</v>
+        <v>0.1650122429548837</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4952632051209341</v>
+        <v>0.1164800660898354</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2904588365225015</v>
+        <v>0.1407461545223596</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4792933853116113</v>
+        <v>0.1644288852050932</v>
       </c>
       <c r="M4" t="n">
-        <v>0.314860554845602</v>
+        <v>0.2420073423020438</v>
       </c>
       <c r="N4" t="n">
-        <v>1.007261394840423</v>
+        <v>1.004289835353957</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3282648205165807</v>
+        <v>0.2523100958881029</v>
       </c>
       <c r="P4" t="n">
-        <v>150.6225016847976</v>
+        <v>151.6751488527784</v>
       </c>
       <c r="Q4" t="n">
-        <v>239.6004369001762</v>
+        <v>240.6530840681571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_12</t>
+          <t>model_16_9_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9851376412376581</v>
+        <v>0.9915124696077643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7938164129717978</v>
+        <v>0.780710218148154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9709156541887697</v>
+        <v>0.6509190749025018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9778529892416674</v>
+        <v>0.944709268861909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9770745190727153</v>
+        <v>0.9187390814985061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09938466147864934</v>
+        <v>0.05675615481436434</v>
       </c>
       <c r="H5" t="n">
-        <v>1.37875059584571</v>
+        <v>1.466391780979894</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08923255922282537</v>
+        <v>0.1794815516551422</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5006005232016125</v>
+        <v>0.13032481863786</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2949165082053646</v>
+        <v>0.1549031845794214</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4781074408733795</v>
+        <v>0.1830547642762155</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3152533290524453</v>
+        <v>0.2382355028419659</v>
       </c>
       <c r="N5" t="n">
-        <v>1.007279522659106</v>
+        <v>1.004157157743136</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3286743159345641</v>
+        <v>0.2483776814134254</v>
       </c>
       <c r="P5" t="n">
-        <v>150.6175149766136</v>
+        <v>151.7379823472455</v>
       </c>
       <c r="Q5" t="n">
-        <v>239.5954501919922</v>
+        <v>240.7159175626242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_8</t>
+          <t>model_16_9_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9851147065592686</v>
+        <v>0.9915146357289001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7938109444462653</v>
+        <v>0.7806417675844959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9761935918854262</v>
+        <v>0.6423437406982814</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9789361642784932</v>
+        <v>0.9429958202475955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9786555247885123</v>
+        <v>0.9165232609380854</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09953802577864486</v>
+        <v>0.05674166995235516</v>
       </c>
       <c r="H6" t="n">
-        <v>1.378787163901126</v>
+        <v>1.466849510214262</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07303952221425598</v>
+        <v>0.1838905988939881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.476116948597761</v>
+        <v>0.1343635585009299</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2745782354060085</v>
+        <v>0.1591270804889836</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4835919844522119</v>
+        <v>0.1878175953170497</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3154964750653244</v>
+        <v>0.2382051006010475</v>
       </c>
       <c r="N6" t="n">
-        <v>1.007290755970971</v>
+        <v>1.004156096785845</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3289278131765931</v>
+        <v>0.2483459848861698</v>
       </c>
       <c r="P6" t="n">
-        <v>150.6144310783916</v>
+        <v>151.7384928367503</v>
       </c>
       <c r="Q6" t="n">
-        <v>239.5923662937703</v>
+        <v>240.7164280521289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_13</t>
+          <t>model_16_9_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9850850295118788</v>
+        <v>0.9910085694450691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7937619590573011</v>
+        <v>0.7806149693305492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9698442364426312</v>
+        <v>0.6888505282725762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9776373230560969</v>
+        <v>0.9527371927630947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9767572760982302</v>
+        <v>0.9288178263244331</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09973647633119045</v>
+        <v>0.06012573752255409</v>
       </c>
       <c r="H7" t="n">
-        <v>1.379114729422687</v>
+        <v>1.467028710261798</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09251973467126808</v>
+        <v>0.1599789216976498</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5054753393342097</v>
+        <v>0.1114023391385829</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2989975650252663</v>
+        <v>0.1356906319909251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4770228236230396</v>
+        <v>0.1601746048306087</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3158108236447739</v>
+        <v>0.245205500596039</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007305291667651</v>
+        <v>1.004403965986089</v>
       </c>
       <c r="O7" t="n">
-        <v>0.329255544225861</v>
+        <v>0.2556444064017738</v>
       </c>
       <c r="P7" t="n">
-        <v>150.6104476160611</v>
+        <v>151.6226345682881</v>
       </c>
       <c r="Q7" t="n">
-        <v>239.5883828314397</v>
+        <v>240.6005697836667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_7</t>
+          <t>model_16_9_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9850004675217788</v>
+        <v>0.9914913100392134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7937023971017279</v>
+        <v>0.7805570406188025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9777791995794497</v>
+        <v>0.6342687294081706</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9792705266903438</v>
+        <v>0.9414099881370503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9791383457563304</v>
+        <v>0.9144538156793602</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1003019427483611</v>
+        <v>0.05689764894669429</v>
       </c>
       <c r="H8" t="n">
-        <v>1.379513020493863</v>
+        <v>1.467416079823985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06817478042568581</v>
+        <v>0.1880424028219085</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4685591792835277</v>
+        <v>0.1381014957273471</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2683671607346021</v>
+        <v>0.1630719492746278</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4852951670246396</v>
+        <v>0.192006035616537</v>
       </c>
       <c r="M8" t="n">
-        <v>0.31670481958499</v>
+        <v>0.2385322807225351</v>
       </c>
       <c r="N8" t="n">
-        <v>1.007346709785251</v>
+        <v>1.004167521613446</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3301875994240788</v>
+        <v>0.2486870937427854</v>
       </c>
       <c r="P8" t="n">
-        <v>150.5991404296527</v>
+        <v>151.7330025154845</v>
       </c>
       <c r="Q8" t="n">
-        <v>239.5770756450313</v>
+        <v>240.7109377308632</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_14</t>
+          <t>model_16_9_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9850220018776238</v>
+        <v>0.9914499754267212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7936980284684467</v>
+        <v>0.7804622165514896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9688620631012048</v>
+        <v>0.6267155262734119</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9774405629700911</v>
+        <v>0.9399487053656959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.976467300167247</v>
+        <v>0.9125317455942471</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1001579424116698</v>
+        <v>0.05717405369075881</v>
       </c>
       <c r="H9" t="n">
-        <v>1.379542233564729</v>
+        <v>1.468050168798731</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09553310280492779</v>
+        <v>0.19192591670401</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5099228109625252</v>
+        <v>0.1415458598772761</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3027278548848505</v>
+        <v>0.1667358849359431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4760379732488759</v>
+        <v>0.195707971302437</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3164773963676866</v>
+        <v>0.2391109652248487</v>
       </c>
       <c r="N9" t="n">
-        <v>1.007336162345654</v>
+        <v>1.004187767137932</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3299504943295838</v>
+        <v>0.2492904140424045</v>
       </c>
       <c r="P9" t="n">
-        <v>150.6020138297117</v>
+        <v>151.723310180624</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.5799490450903</v>
+        <v>240.7012453960026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_15</t>
+          <t>model_16_9_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9849524968940074</v>
+        <v>0.9906644082178556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7936284403572672</v>
+        <v>0.7804152289233137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9679632307760473</v>
+        <v>0.6984890042012133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9772611965630549</v>
+        <v>0.9549314288890648</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9762025231892644</v>
+        <v>0.9314742706881537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1006227225571531</v>
+        <v>0.06242714523364735</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38000756958461</v>
+        <v>1.468364375284702</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09829077558211806</v>
+        <v>0.1550232552865465</v>
       </c>
       <c r="J10" t="n">
-        <v>0.513977124124101</v>
+        <v>0.1062303434120028</v>
       </c>
       <c r="K10" t="n">
-        <v>0.306133981981923</v>
+        <v>0.1306267993492747</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4751433388744868</v>
+        <v>0.1817155905825811</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3172108487381116</v>
+        <v>0.249854247979992</v>
       </c>
       <c r="N10" t="n">
-        <v>1.007370205602935</v>
+        <v>1.004572534750438</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3307151712858736</v>
+        <v>0.2604910605860954</v>
       </c>
       <c r="P10" t="n">
-        <v>150.5927543529439</v>
+        <v>151.5475101568609</v>
       </c>
       <c r="Q10" t="n">
-        <v>239.5706895683225</v>
+        <v>240.5254453722395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_16</t>
+          <t>model_16_9_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9848796054563277</v>
+        <v>0.9913963650307823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7935561401619745</v>
+        <v>0.7803619756200059</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9671426922397562</v>
+        <v>0.6196877695510179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9770978522920073</v>
+        <v>0.9386067980357633</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9759611690481336</v>
+        <v>0.9107543376690199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1011101479365515</v>
+        <v>0.05753254665525516</v>
       </c>
       <c r="H11" t="n">
-        <v>1.380491041323445</v>
+        <v>1.46872048036913</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1008082382064938</v>
+        <v>0.1955392699138362</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5176692805257358</v>
+        <v>0.1447088462549657</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3092387945164545</v>
+        <v>0.1701240591406111</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4743321468735094</v>
+        <v>0.1989736874668301</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3179782192801128</v>
+        <v>0.2398594310325428</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007405907531595</v>
+        <v>1.004214025291045</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3315152103805238</v>
+        <v>0.25007074358907</v>
       </c>
       <c r="P11" t="n">
-        <v>150.5830895655101</v>
+        <v>151.7108089250513</v>
       </c>
       <c r="Q11" t="n">
-        <v>239.5610247808888</v>
+        <v>240.6887441404299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_6</t>
+          <t>model_16_9_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9848124821427824</v>
+        <v>0.9913349147245895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7935190184090624</v>
+        <v>0.7802597087135184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9794732580355222</v>
+        <v>0.6131803386268302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9796338223418239</v>
+        <v>0.9373781316643079</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9796595484847733</v>
+        <v>0.909117114416797</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1015590018433035</v>
+        <v>0.0579434651357195</v>
       </c>
       <c r="H12" t="n">
-        <v>1.380739274656098</v>
+        <v>1.469404339643708</v>
       </c>
       <c r="I12" t="n">
-        <v>0.062977305038426</v>
+        <v>0.1988850952385389</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4603474167485106</v>
+        <v>0.1476049143432396</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2616623378684189</v>
+        <v>0.1732450070736836</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4871424731393841</v>
+        <v>0.2018696760688816</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3186832311925175</v>
+        <v>0.2407144888362965</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007438784256596</v>
+        <v>1.004244123400201</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3322502361096153</v>
+        <v>0.2509622029737431</v>
       </c>
       <c r="P12" t="n">
-        <v>150.5742307008805</v>
+        <v>151.6965749656841</v>
       </c>
       <c r="Q12" t="n">
-        <v>239.5521659162592</v>
+        <v>240.6745101810628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_17</t>
+          <t>model_16_9_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9848056612830429</v>
+        <v>0.9912689021319687</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7934832832810585</v>
+        <v>0.7801579829299787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9663945171614651</v>
+        <v>0.6071732001711654</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9769493873529863</v>
+        <v>0.9362556402197378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.975741543732762</v>
+        <v>0.9076130015614161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1016046129637888</v>
+        <v>0.05838489164653402</v>
       </c>
       <c r="H13" t="n">
-        <v>1.380978235621604</v>
+        <v>1.470084580426641</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1031036852973782</v>
+        <v>0.2019736929060535</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5210251115659595</v>
+        <v>0.1502507193620008</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3120640844778005</v>
+        <v>0.1761122140356755</v>
       </c>
       <c r="L13" t="n">
-        <v>0.47359692316911</v>
+        <v>0.2044327916433914</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3187547850053216</v>
+        <v>0.2416296580441524</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007442125085857</v>
+        <v>1.004276456098627</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3323248361163674</v>
+        <v>0.2519163328294389</v>
       </c>
       <c r="P13" t="n">
-        <v>150.5733326833631</v>
+        <v>151.6813962546009</v>
       </c>
       <c r="Q13" t="n">
-        <v>239.5512678987417</v>
+        <v>240.6593314699795</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_18</t>
+          <t>model_16_9_0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9847323006702233</v>
+        <v>0.9901744763591456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7934114231986309</v>
+        <v>0.7800919147734041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9657134754946392</v>
+        <v>0.7076233944828275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.976814463460157</v>
+        <v>0.9570942264800032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9755417767603205</v>
+        <v>0.9340432959685137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1020951757195081</v>
+        <v>0.06570332182876977</v>
       </c>
       <c r="H14" t="n">
-        <v>1.381458764323684</v>
+        <v>1.470526378493872</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1051931629587527</v>
+        <v>0.150326766812678</v>
       </c>
       <c r="J14" t="n">
-        <v>0.52407486722282</v>
+        <v>0.1011324509083663</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3146339140117611</v>
+        <v>0.1257296088605221</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4729323713991423</v>
+        <v>0.2055102345802756</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3195233570797417</v>
+        <v>0.2563265921217886</v>
       </c>
       <c r="N14" t="n">
-        <v>1.007478056814584</v>
+        <v>1.004812501375112</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3331261278951591</v>
+        <v>0.2672389458176077</v>
       </c>
       <c r="P14" t="n">
-        <v>150.5636996109427</v>
+        <v>151.4452115884201</v>
       </c>
       <c r="Q14" t="n">
-        <v>239.5416348263214</v>
+        <v>240.4231468037987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_19</t>
+          <t>model_16_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9846607510656372</v>
+        <v>0.9912008524147532</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7933416812498276</v>
+        <v>0.7800585872471574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9650939889748994</v>
+        <v>0.6016468700387184</v>
       </c>
       <c r="E15" t="n">
-        <v>0.976691983450233</v>
+        <v>0.9352321204830689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9753602807326377</v>
+        <v>0.9062349254296428</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1025736282548307</v>
+        <v>0.0588399404188942</v>
       </c>
       <c r="H15" t="n">
-        <v>1.381925129056463</v>
+        <v>1.470749239815343</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1070937856483326</v>
+        <v>0.2048150807786596</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5268433472546725</v>
+        <v>0.1526632398931637</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3169687036245571</v>
+        <v>0.1787391641777744</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4723264937721521</v>
+        <v>0.2067130482838318</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3202711792447624</v>
+        <v>0.2425694548348868</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007513101518872</v>
+        <v>1.004309786572366</v>
       </c>
       <c r="O15" t="n">
-        <v>0.33390578639795</v>
+        <v>0.2528961387152024</v>
       </c>
       <c r="P15" t="n">
-        <v>150.5543488276756</v>
+        <v>151.6658687916894</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.5322840430543</v>
+        <v>240.643804007068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_20</t>
+          <t>model_16_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9845918657189561</v>
+        <v>0.9911326415154981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.793274788108878</v>
+        <v>0.7799628243822734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9645312950930577</v>
+        <v>0.5965767038882069</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9765808570681069</v>
+        <v>0.9343005315671195</v>
       </c>
       <c r="F16" t="n">
-        <v>0.975195572025561</v>
+        <v>0.9049752042301017</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1030342648852758</v>
+        <v>0.05929606701629573</v>
       </c>
       <c r="H16" t="n">
-        <v>1.382372443798008</v>
+        <v>1.47138960653377</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1088201650368069</v>
+        <v>0.2074219298569615</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5293551952706803</v>
+        <v>0.15485907188918</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3190875388592972</v>
+        <v>0.1811405008730708</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4717795739665083</v>
+        <v>0.2087390386798808</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3209895089956615</v>
+        <v>0.243507837689664</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007546841280511</v>
+        <v>1.004343195992409</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3346546969334924</v>
+        <v>0.2538744704708277</v>
       </c>
       <c r="P16" t="n">
-        <v>150.5453873545708</v>
+        <v>151.6504245973611</v>
       </c>
       <c r="Q16" t="n">
-        <v>239.5233225699494</v>
+        <v>240.6283598127397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_5</t>
+          <t>model_16_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9845282575879768</v>
+        <v>0.9910656290979872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7932363530829979</v>
+        <v>0.7798715623657502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9812729984888583</v>
+        <v>0.5919357792731669</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9800277195656558</v>
+        <v>0.9334538947323114</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9802202292059187</v>
+        <v>0.9038258906582931</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1034596127500222</v>
+        <v>0.05974417936075439</v>
       </c>
       <c r="H17" t="n">
-        <v>1.382629458993045</v>
+        <v>1.471999876058484</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05745559079288801</v>
+        <v>0.2098080824397452</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4514439507914325</v>
+        <v>0.1568546648154683</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2544496647287488</v>
+        <v>0.1833313736276067</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4891441536082553</v>
+        <v>0.2105413859688978</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3216513838770513</v>
+        <v>0.2444262247811278</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00757799628344</v>
+        <v>1.004376018400986</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3353447491988529</v>
+        <v>0.2548319552020985</v>
       </c>
       <c r="P17" t="n">
-        <v>150.537147914812</v>
+        <v>151.6353670189445</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.5150831301907</v>
+        <v>240.6133022343231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_21</t>
+          <t>model_16_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9845262568936544</v>
+        <v>0.9910007231332533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7932113055403578</v>
+        <v>0.7797852727601919</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9640207112153146</v>
+        <v>0.5876944132036503</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9764801512716398</v>
+        <v>0.9326849664711452</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9750462025855291</v>
+        <v>0.9027785045930332</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1034729914021689</v>
+        <v>0.06017820584579528</v>
       </c>
       <c r="H18" t="n">
-        <v>1.382796952026012</v>
+        <v>1.472576895048178</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1103866677322651</v>
+        <v>0.2119888001718347</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5316315013126555</v>
+        <v>0.1586670922173005</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3210090476741614</v>
+        <v>0.1853279476263352</v>
       </c>
       <c r="L18" t="n">
-        <v>0.471284610643882</v>
+        <v>0.2121513714976316</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3216721800252065</v>
+        <v>0.2453124657366504</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007578976215353</v>
+        <v>1.00440780907759</v>
       </c>
       <c r="O18" t="n">
-        <v>0.335366430682089</v>
+        <v>0.2557559252698695</v>
       </c>
       <c r="P18" t="n">
-        <v>150.5368893059336</v>
+        <v>151.6208900427107</v>
       </c>
       <c r="Q18" t="n">
-        <v>239.5148245213123</v>
+        <v>240.5988252580893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_22</t>
+          <t>model_16_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9844642843958178</v>
+        <v>0.9909386127075097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7931514692640549</v>
+        <v>0.7797043271445619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9635578065832359</v>
+        <v>0.5838257511647642</v>
       </c>
       <c r="E19" t="n">
-        <v>0.976388958859426</v>
+        <v>0.931987587247362</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9749108898609979</v>
+        <v>0.9018256254630714</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1038874017805589</v>
+        <v>0.06059353854873437</v>
       </c>
       <c r="H19" t="n">
-        <v>1.383197077481171</v>
+        <v>1.473118178752617</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1118068875737076</v>
+        <v>0.2139778904246885</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5336927713307348</v>
+        <v>0.1603108726302303</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3227497289868473</v>
+        <v>0.1871443682929023</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4708366409199195</v>
+        <v>0.2135861213758892</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3223156865257398</v>
+        <v>0.2461575482262008</v>
       </c>
       <c r="N19" t="n">
-        <v>1.007609330091844</v>
+        <v>1.004438230510607</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3360373325865921</v>
+        <v>0.256636984670562</v>
       </c>
       <c r="P19" t="n">
-        <v>150.5288952830877</v>
+        <v>151.6071340324</v>
       </c>
       <c r="Q19" t="n">
-        <v>239.5068304984663</v>
+        <v>240.5850692477787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_23</t>
+          <t>model_16_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9844060945365587</v>
+        <v>0.9908797889414127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7930954842461491</v>
+        <v>0.7796287479793987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9631384131196244</v>
+        <v>0.5803055043086149</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9763063584201461</v>
+        <v>0.9313560419189253</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9747882929101339</v>
+        <v>0.9009604211750599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.104276517637364</v>
+        <v>0.06098689334348408</v>
       </c>
       <c r="H20" t="n">
-        <v>1.383571449553694</v>
+        <v>1.473623576978073</v>
       </c>
       <c r="I20" t="n">
-        <v>0.113093612477966</v>
+        <v>0.2157878414203619</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5355598324692055</v>
+        <v>0.1617994771159359</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3243268328556884</v>
+        <v>0.1887936592681489</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4704365987930618</v>
+        <v>0.2148626831986886</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3229187477328686</v>
+        <v>0.2469552456286039</v>
       </c>
       <c r="N20" t="n">
-        <v>1.0076378312474</v>
+        <v>1.004467042151145</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3366660673578172</v>
+        <v>0.2574686417028466</v>
       </c>
       <c r="P20" t="n">
-        <v>150.5214181696454</v>
+        <v>151.5941926022336</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.499353385024</v>
+        <v>240.5721278176123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_24</t>
+          <t>model_16_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9843517841305987</v>
+        <v>0.990824364165956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.793043332550584</v>
+        <v>0.7795585720367526</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9627583666996294</v>
+        <v>0.5771002367782339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9762316641372063</v>
+        <v>0.9307837880347202</v>
       </c>
       <c r="F21" t="n">
-        <v>0.974677353588569</v>
+        <v>0.9001743592390771</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1046396915720958</v>
+        <v>0.0613575190721705</v>
       </c>
       <c r="H21" t="n">
-        <v>1.383920188182075</v>
+        <v>1.474092843829678</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1142596182358309</v>
+        <v>0.2174358443573943</v>
       </c>
       <c r="J21" t="n">
-        <v>0.537248186600962</v>
+        <v>0.1631483267719041</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3257539713939097</v>
+        <v>0.1902920855646492</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4700669701745164</v>
+        <v>0.2160124823352288</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3234805891735945</v>
+        <v>0.2477044994992431</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007664432262564</v>
+        <v>1.00449418897994</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3372518275518469</v>
+        <v>0.2582497928619282</v>
       </c>
       <c r="P21" t="n">
-        <v>150.5144646775839</v>
+        <v>151.5820751101431</v>
       </c>
       <c r="Q21" t="n">
-        <v>239.4923998929626</v>
+        <v>240.5600103255217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_4</t>
+          <t>model_16_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9841195648229821</v>
+        <v>0.9907725687599238</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7928227959142553</v>
+        <v>0.7794936231725207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9831717537011733</v>
+        <v>0.5741916660294706</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9804541184483287</v>
+        <v>0.9302660518580803</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9808212552552872</v>
+        <v>0.8994620157408739</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1061925431513991</v>
+        <v>0.06170387519080343</v>
       </c>
       <c r="H22" t="n">
-        <v>1.385394917684682</v>
+        <v>1.474527157183859</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05163009318561062</v>
+        <v>0.2189312992893444</v>
       </c>
       <c r="J22" t="n">
-        <v>0.441805832758806</v>
+        <v>0.1643686736896239</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2467179837933541</v>
+        <v>0.1916499864894842</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4912935666963306</v>
+        <v>0.2170364739202889</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3258719735592478</v>
+        <v>0.2484026473103768</v>
       </c>
       <c r="N22" t="n">
-        <v>1.007778172331601</v>
+        <v>1.004519558158405</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3397450181216455</v>
+        <v>0.258977662270747</v>
       </c>
       <c r="P22" t="n">
-        <v>150.4850027755728</v>
+        <v>151.5708170861217</v>
       </c>
       <c r="Q22" t="n">
-        <v>239.4629379909514</v>
+        <v>240.5487523015003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_3</t>
+          <t>model_16_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9835506468584566</v>
+        <v>0.9907243709783584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7922375741939877</v>
+        <v>0.7794337597755207</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9851577918757803</v>
+        <v>0.5715520062947881</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9809146590519956</v>
+        <v>0.9297978483905012</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9814626802622572</v>
+        <v>0.8988165610694021</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1099969001998074</v>
+        <v>0.06202617397806181</v>
       </c>
       <c r="H23" t="n">
-        <v>1.38930829802281</v>
+        <v>1.474927463995244</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04553680608936164</v>
+        <v>0.2202884923954704</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4313959914638812</v>
+        <v>0.1654722679221812</v>
       </c>
       <c r="K23" t="n">
-        <v>0.238466605166611</v>
+        <v>0.192880380951624</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4935679180536233</v>
+        <v>0.2179532071702842</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3316578058779974</v>
+        <v>0.2490505450266307</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008056826028511</v>
+        <v>1.00454316523509</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3457771653005283</v>
+        <v>0.2596531423341151</v>
       </c>
       <c r="P23" t="n">
-        <v>150.4146061871771</v>
+        <v>151.5603976441708</v>
       </c>
       <c r="Q23" t="n">
-        <v>239.3925414025557</v>
+        <v>240.5383328595495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_2</t>
+          <t>model_16_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9827765638291236</v>
+        <v>0.9906797312583113</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7914278528121991</v>
+        <v>0.7793787577561805</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9872133550896806</v>
+        <v>0.5691593388636015</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9814108632736911</v>
+        <v>0.9293748528676042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9821437527914822</v>
+        <v>0.8982323667036872</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1151731969812822</v>
+        <v>0.0623246799915633</v>
       </c>
       <c r="H24" t="n">
-        <v>1.394722908631255</v>
+        <v>1.475295262751832</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03923021190254006</v>
+        <v>0.2215186932809074</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4201800266681748</v>
+        <v>0.1664693032963108</v>
       </c>
       <c r="K24" t="n">
-        <v>0.229705195415133</v>
+        <v>0.1939939982886091</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4959578771275057</v>
+        <v>0.2187730002164142</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3393717680969974</v>
+        <v>0.2496491137407928</v>
       </c>
       <c r="N24" t="n">
-        <v>1.008435968736756</v>
+        <v>1.004565029587766</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3538195268612943</v>
+        <v>0.2602771933576471</v>
       </c>
       <c r="P24" t="n">
-        <v>150.3226364457682</v>
+        <v>151.5507955681946</v>
       </c>
       <c r="Q24" t="n">
-        <v>239.3005716611468</v>
+        <v>240.5287307835733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_1</t>
+          <t>model_16_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9817406291137154</v>
+        <v>0.990638500065501</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7903250849065082</v>
+        <v>0.7793282706367231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9893118007302558</v>
+        <v>0.5669902665443952</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9819437667962535</v>
+        <v>0.9289926950483803</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9828621768859469</v>
+        <v>0.8977035741224995</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1221004971932575</v>
+        <v>0.06260039316773816</v>
       </c>
       <c r="H25" t="n">
-        <v>1.402097122694389</v>
+        <v>1.475632870352116</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03279205179696845</v>
+        <v>0.2226339317185121</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4081345282882033</v>
+        <v>0.1673700808309216</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2204632900425859</v>
+        <v>0.1950020062747169</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4983958458029694</v>
+        <v>0.2195090688988332</v>
       </c>
       <c r="M25" t="n">
-        <v>0.349428815630963</v>
+        <v>0.2502007057698642</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008943365332058</v>
+        <v>1.004585224457714</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3643047237297393</v>
+        <v>0.260852267801349</v>
       </c>
       <c r="P25" t="n">
-        <v>150.2058216517138</v>
+        <v>151.541967440522</v>
       </c>
       <c r="Q25" t="n">
-        <v>239.1837568670925</v>
+        <v>240.5199026559007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_0</t>
+          <t>model_16_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9803714821093159</v>
+        <v>0.9906005192792752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7888403004875654</v>
+        <v>0.7792820756878004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9914162375805784</v>
+        <v>0.5650271290084088</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9825139567162552</v>
+        <v>0.9286468266859084</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9836140648643278</v>
+        <v>0.8972249900922581</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1312559895160186</v>
+        <v>0.06285437086011605</v>
       </c>
       <c r="H26" t="n">
-        <v>1.412025882940664</v>
+        <v>1.47594177618827</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02633551029192996</v>
+        <v>0.2236432878469597</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3952462258716005</v>
+        <v>0.1681853211195543</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2107909007108631</v>
+        <v>0.195914304483257</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5007922907505931</v>
+        <v>0.2201684308829887</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3622926848778742</v>
+        <v>0.250707739928619</v>
       </c>
       <c r="N26" t="n">
-        <v>1.009613967946458</v>
+        <v>1.004603827291784</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3777162345223718</v>
+        <v>0.2613808874539474</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0612114882877</v>
+        <v>151.5338696041005</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.0391467036663</v>
+        <v>240.5118048194792</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_4</t>
+          <t>model_16_9_10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9913902239884693</v>
+        <v>0.9717340716814259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7807632037382887</v>
+        <v>0.8187950978302608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6693716509266059</v>
+        <v>0.8421103762070624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9485121578151583</v>
+        <v>0.8273039190802156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9235787538716346</v>
+        <v>0.8487230962541112</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05757361183347896</v>
+        <v>0.1890143928189377</v>
       </c>
       <c r="H2" t="n">
-        <v>1.466037466094687</v>
+        <v>1.211718015180899</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1699940754319264</v>
+        <v>0.6878294568473808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1213610953712182</v>
+        <v>0.3316177067880155</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1456775854015723</v>
+        <v>0.5097235818176982</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1714373981791835</v>
+        <v>0.6437278770288762</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2399450183552035</v>
+        <v>0.4347578553849691</v>
       </c>
       <c r="N2" t="n">
-        <v>1.004217033148505</v>
+        <v>1.013844536319302</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2501599745412466</v>
+        <v>0.4532663973615364</v>
       </c>
       <c r="P2" t="n">
-        <v>151.7093818882879</v>
+        <v>149.3318642286816</v>
       </c>
       <c r="Q2" t="n">
-        <v>240.6873171036665</v>
+        <v>238.3097994440602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_5</t>
+          <t>model_16_9_11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9914751487660968</v>
+        <v>0.9711451732068201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7807542731192912</v>
+        <v>0.8187170569176495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6599525011703298</v>
+        <v>0.8372732234637478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9465498755282089</v>
+        <v>0.8092473847766286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9210952954482985</v>
+        <v>0.8404509435319245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05700571945444153</v>
+        <v>0.1929523596302546</v>
       </c>
       <c r="H3" t="n">
-        <v>1.466097185185045</v>
+        <v>1.212239875122877</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1748369742899961</v>
+        <v>0.708902001478213</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1259863567468411</v>
+        <v>0.3662905636727989</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1504116645338219</v>
+        <v>0.537596384674497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1776312674432403</v>
+        <v>0.6060528451618973</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2387587055050381</v>
+        <v>0.4392634285144332</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004175437339055</v>
+        <v>1.014132976388496</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2489231578970435</v>
+        <v>0.4579637820669439</v>
       </c>
       <c r="P3" t="n">
-        <v>151.7292073497509</v>
+        <v>149.2906239236832</v>
       </c>
       <c r="Q3" t="n">
-        <v>240.7071425651295</v>
+        <v>238.2685591390618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_3</t>
+          <t>model_16_9_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9912415861523387</v>
+        <v>0.9721408550958296</v>
       </c>
       <c r="C4" t="n">
-        <v>0.780722890793335</v>
+        <v>0.8184777378766388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6790610182946142</v>
+        <v>0.847509672845121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9505829504737999</v>
+        <v>0.844011566133482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.926165741375213</v>
+        <v>0.8569742567350689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05856755372809862</v>
+        <v>0.1862942302537547</v>
       </c>
       <c r="H4" t="n">
-        <v>1.466307038943216</v>
+        <v>1.213840202652078</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1650122429548837</v>
+        <v>0.6643079917586798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1164800660898354</v>
+        <v>0.2995350354724964</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1407461545223596</v>
+        <v>0.4819215117702361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1644288852050932</v>
+        <v>0.6844789357343397</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2420073423020438</v>
+        <v>0.4316181532949636</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004289835353957</v>
+        <v>1.013645295463267</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2523100958881029</v>
+        <v>0.44999303165348</v>
       </c>
       <c r="P4" t="n">
-        <v>151.6751488527784</v>
+        <v>149.3608559440867</v>
       </c>
       <c r="Q4" t="n">
-        <v>240.6530840681571</v>
+        <v>238.3387911594654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_6</t>
+          <t>model_16_9_12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9915124696077643</v>
+        <v>0.9704246471369699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.780710218148154</v>
+        <v>0.8183442998312154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6509190749025018</v>
+        <v>0.832858345474796</v>
       </c>
       <c r="E5" t="n">
-        <v>0.944709268861909</v>
+        <v>0.7905008143949557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9187390814985061</v>
+        <v>0.8322552516097947</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05675615481436434</v>
+        <v>0.1977705207770606</v>
       </c>
       <c r="H5" t="n">
-        <v>1.466391780979894</v>
+        <v>1.21473250347625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1794815516551422</v>
+        <v>0.7281349507768354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.13032481863786</v>
+        <v>0.4022884545745509</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1549031845794214</v>
+        <v>0.5652115548596278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1830547642762155</v>
+        <v>0.5714404650680796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2382355028419659</v>
+        <v>0.4447139763680254</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004157157743136</v>
+        <v>1.014485887116586</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2483776814134254</v>
+        <v>0.463646371026853</v>
       </c>
       <c r="P5" t="n">
-        <v>151.7379823472455</v>
+        <v>149.2412958128114</v>
       </c>
       <c r="Q5" t="n">
-        <v>240.7159175626242</v>
+        <v>238.21923102819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_7</t>
+          <t>model_16_9_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9915146357289001</v>
+        <v>0.9696148586747841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7806417675844959</v>
+        <v>0.8177590960875969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6423437406982814</v>
+        <v>0.8287767160685632</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9429958202475955</v>
+        <v>0.7715805569699362</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9165232609380854</v>
+        <v>0.8242253223930758</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05674166995235516</v>
+        <v>0.2031855799524295</v>
       </c>
       <c r="H6" t="n">
-        <v>1.466849510214262</v>
+        <v>1.218645763604443</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1838905988939881</v>
+        <v>0.7459161378497947</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1343635585009299</v>
+        <v>0.4386198660675438</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1591270804889836</v>
+        <v>0.5922681919320254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1878175953170497</v>
+        <v>0.5408514349099057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2382051006010475</v>
+        <v>0.4507611118457642</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004156096785845</v>
+        <v>1.014882518200106</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2483459848861698</v>
+        <v>0.4699509455811753</v>
       </c>
       <c r="P6" t="n">
-        <v>151.7384928367503</v>
+        <v>149.1872710611939</v>
       </c>
       <c r="Q6" t="n">
-        <v>240.7164280521289</v>
+        <v>238.1652062765726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_2</t>
+          <t>model_16_9_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9910085694450691</v>
+        <v>0.972307204895473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7806149693305492</v>
+        <v>0.8176460093815868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6888505282725762</v>
+        <v>0.8536761038229921</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9527371927630947</v>
+        <v>0.858575801302753</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9288178263244331</v>
+        <v>0.8651105723129127</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06012573752255409</v>
+        <v>0.1851818483775687</v>
       </c>
       <c r="H7" t="n">
-        <v>1.467028710261798</v>
+        <v>1.219401974928248</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1599789216976498</v>
+        <v>0.6374445870060133</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1114023391385829</v>
+        <v>0.2715682267167239</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1356906319909251</v>
+        <v>0.4545064086286214</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1601746048306087</v>
+        <v>0.7281576896760881</v>
       </c>
       <c r="M7" t="n">
-        <v>0.245205500596039</v>
+        <v>0.4303276058743719</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004403965986089</v>
+        <v>1.013563818010381</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2556444064017738</v>
+        <v>0.4486475429573923</v>
       </c>
       <c r="P7" t="n">
-        <v>151.6226345682881</v>
+        <v>149.3728339449874</v>
       </c>
       <c r="Q7" t="n">
-        <v>240.6005697836667</v>
+        <v>238.350769160366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_8</t>
+          <t>model_16_9_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9914913100392134</v>
+        <v>0.968750654081836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7805570406188025</v>
+        <v>0.817027743463163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6342687294081706</v>
+        <v>0.824972074398743</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9414099881370503</v>
+        <v>0.7528806059506647</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9144538156793602</v>
+        <v>0.816437422525623</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05689764894669429</v>
+        <v>0.2089645200447696</v>
       </c>
       <c r="H8" t="n">
-        <v>1.467416079823985</v>
+        <v>1.223536321971602</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1880424028219085</v>
+        <v>0.7624906571271559</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1381014957273471</v>
+        <v>0.4745282366630493</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1630719492746278</v>
+        <v>0.6185093174242802</v>
       </c>
       <c r="L8" t="n">
-        <v>0.192006035616537</v>
+        <v>0.5133374986244601</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2385322807225351</v>
+        <v>0.4571263720731605</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004167521613446</v>
+        <v>1.015305802082366</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2486870937427854</v>
+        <v>0.4765871881143571</v>
       </c>
       <c r="P8" t="n">
-        <v>151.7330025154845</v>
+        <v>149.1311816039592</v>
       </c>
       <c r="Q8" t="n">
-        <v>240.7109377308632</v>
+        <v>238.1091168193379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_9</t>
+          <t>model_16_9_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9914499754267212</v>
+        <v>0.9678597580218768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7804622165514896</v>
+        <v>0.8162024135500937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6267155262734119</v>
+        <v>0.8214102241740406</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9399487053656959</v>
+        <v>0.7346893472883509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9125317455942471</v>
+        <v>0.8089513274443317</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05717405369075881</v>
+        <v>0.2149219460999158</v>
       </c>
       <c r="H9" t="n">
-        <v>1.468050168798731</v>
+        <v>1.229055306900591</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19192591670401</v>
+        <v>0.7780074811373371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1415458598772761</v>
+        <v>0.5094597964822105</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1667358849359431</v>
+        <v>0.6437335195607371</v>
       </c>
       <c r="L9" t="n">
-        <v>0.195707971302437</v>
+        <v>0.4883194747361954</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2391109652248487</v>
+        <v>0.4635967494492556</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004187767137932</v>
+        <v>1.015742159336224</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2492904140424045</v>
+        <v>0.4833330228508801</v>
       </c>
       <c r="P9" t="n">
-        <v>151.723310180624</v>
+        <v>149.0749607163314</v>
       </c>
       <c r="Q9" t="n">
-        <v>240.7012453960026</v>
+        <v>238.05289593171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_1</t>
+          <t>model_16_9_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9906644082178556</v>
+        <v>0.9721691192213395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7804152289233137</v>
+        <v>0.8161649387460516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6984890042012133</v>
+        <v>0.8608964533120153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9549314288890648</v>
+        <v>0.8701115297440665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9314742706881537</v>
+        <v>0.8730652283242677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06242714523364735</v>
+        <v>0.1861052279163252</v>
       </c>
       <c r="H10" t="n">
-        <v>1.468364375284702</v>
+        <v>1.229305901087776</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1550232552865465</v>
+        <v>0.6059898976605238</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1062303434120028</v>
+        <v>0.2494168739386922</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1306267993492747</v>
+        <v>0.4277034026585462</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1817155905825811</v>
+        <v>0.7744452690563897</v>
       </c>
       <c r="M10" t="n">
-        <v>0.249854247979992</v>
+        <v>0.4313991515016288</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004572534750438</v>
+        <v>1.013631451809956</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2604910605860954</v>
+        <v>0.4497647065004067</v>
       </c>
       <c r="P10" t="n">
-        <v>151.5475101568609</v>
+        <v>149.3628860475094</v>
       </c>
       <c r="Q10" t="n">
-        <v>240.5254453722395</v>
+        <v>238.340821262888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_10</t>
+          <t>model_16_9_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9913963650307823</v>
+        <v>0.9669637044501608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7803619756200059</v>
+        <v>0.8153230853392857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6196877695510179</v>
+        <v>0.8180705920105064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9386067980357633</v>
+        <v>0.7172041500539881</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9107543376690199</v>
+        <v>0.8018100425634359</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05753254665525516</v>
+        <v>0.2209138604599286</v>
       </c>
       <c r="H11" t="n">
-        <v>1.46872048036913</v>
+        <v>1.234935378695198</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1955392699138362</v>
+        <v>0.7925562356528737</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1447088462549657</v>
+        <v>0.5430355497865883</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1701240591406111</v>
+        <v>0.6677958927197312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1989736874668301</v>
+        <v>0.465602380364049</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2398594310325428</v>
+        <v>0.4700147449388462</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004214025291045</v>
+        <v>1.016181042718289</v>
       </c>
       <c r="O11" t="n">
-        <v>0.25007074358907</v>
+        <v>0.4900242456955448</v>
       </c>
       <c r="P11" t="n">
-        <v>151.7108089250513</v>
+        <v>149.0199648502393</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.6887441404299</v>
+        <v>237.9979000656179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_11</t>
+          <t>model_16_9_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9913349147245895</v>
+        <v>0.9660794612836107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7802597087135184</v>
+        <v>0.8144207304123099</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6131803386268302</v>
+        <v>0.8149413958699734</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9373781316643079</v>
+        <v>0.7005650377818307</v>
       </c>
       <c r="F12" t="n">
-        <v>0.909117114416797</v>
+        <v>0.7950459183285036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0579434651357195</v>
+        <v>0.2268267985862149</v>
       </c>
       <c r="H12" t="n">
-        <v>1.469404339643708</v>
+        <v>1.240969430246848</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1988850952385389</v>
+        <v>0.8061882478776563</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1476049143432396</v>
+        <v>0.5749866179596069</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1732450070736836</v>
+        <v>0.6905874329186317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2018696760688816</v>
+        <v>0.445016234242672</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2407144888362965</v>
+        <v>0.476263371031423</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004244123400201</v>
+        <v>1.016614141412109</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2509622029737431</v>
+        <v>0.4965388887373218</v>
       </c>
       <c r="P12" t="n">
-        <v>151.6965749656841</v>
+        <v>148.9671371091152</v>
       </c>
       <c r="Q12" t="n">
-        <v>240.6745101810628</v>
+        <v>237.9450723244939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_12</t>
+          <t>model_16_9_6</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9912689021319687</v>
+        <v>0.9716591672310446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7801579829299787</v>
+        <v>0.8138925204875224</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6071732001711654</v>
+        <v>0.8695286650482119</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9362556402197378</v>
+        <v>0.8777635224925242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9076130015614161</v>
+        <v>0.8808260012676081</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05838489164653402</v>
+        <v>0.1895152792235403</v>
       </c>
       <c r="H13" t="n">
-        <v>1.470084580426641</v>
+        <v>1.244501572446085</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2019736929060535</v>
+        <v>0.5683845796715064</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1502507193620008</v>
+        <v>0.2347232209380734</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1761122140356755</v>
+        <v>0.4015536806296086</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2044327916433914</v>
+        <v>0.8228263389857079</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2416296580441524</v>
+        <v>0.4353335264180101</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004276456098627</v>
+        <v>1.013881224213366</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2519163328294389</v>
+        <v>0.4538665759022573</v>
       </c>
       <c r="P13" t="n">
-        <v>151.6813962546009</v>
+        <v>149.3265712571241</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.6593314699795</v>
+        <v>238.3045064725027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_0</t>
+          <t>model_16_9_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9901744763591456</v>
+        <v>0.9652190302929667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7800919147734041</v>
+        <v>0.8135182857347167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7076233944828275</v>
+        <v>0.8120119107963398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9570942264800032</v>
+        <v>0.6848530602371823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9340432959685137</v>
+        <v>0.7886750810350674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06570332182876977</v>
+        <v>0.2325805045825709</v>
       </c>
       <c r="H14" t="n">
-        <v>1.470526378493872</v>
+        <v>1.247004081961288</v>
       </c>
       <c r="I14" t="n">
-        <v>0.150326766812678</v>
+        <v>0.8189502399492977</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1011324509083663</v>
+        <v>0.6051573661011427</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1257296088605221</v>
+        <v>0.7120538030252201</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2055102345802756</v>
+        <v>0.4263816564393575</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2563265921217886</v>
+        <v>0.4822660101879158</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004812501375112</v>
+        <v>1.017035576999363</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2672389458176077</v>
+        <v>0.5027970726698825</v>
       </c>
       <c r="P14" t="n">
-        <v>151.4452115884201</v>
+        <v>148.9170377152369</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.4231468037987</v>
+        <v>237.8949729306156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_13</t>
+          <t>model_16_9_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9912008524147532</v>
+        <v>0.9643917110269995</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7800585872471574</v>
+        <v>0.8126329175252658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6016468700387184</v>
+        <v>0.8092769198702791</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9352321204830689</v>
+        <v>0.6701157681468773</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9062349254296428</v>
+        <v>0.7827077167003684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0588399404188942</v>
+        <v>0.2381127923235489</v>
       </c>
       <c r="H15" t="n">
-        <v>1.470749239815343</v>
+        <v>1.252924543254633</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2048150807786596</v>
+        <v>0.8308649388254061</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1526632398931637</v>
+        <v>0.6334564854628733</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1787391641777744</v>
+        <v>0.7321606815200588</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2067130482838318</v>
+        <v>0.4095326855149251</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2425694548348868</v>
+        <v>0.4879680238740536</v>
       </c>
       <c r="N15" t="n">
-        <v>1.004309786572366</v>
+        <v>1.017440794599021</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2528961387152024</v>
+        <v>0.5087418328834348</v>
       </c>
       <c r="P15" t="n">
-        <v>151.6658687916894</v>
+        <v>148.8700216004964</v>
       </c>
       <c r="Q15" t="n">
-        <v>240.643804007068</v>
+        <v>237.847956815875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_14</t>
+          <t>model_16_9_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9911326415154981</v>
+        <v>0.9636033381719801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7799628243822734</v>
+        <v>0.8117764923554812</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5965767038882069</v>
+        <v>0.8067292830754318</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9343005315671195</v>
+        <v>0.6563628512906918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9049752042301017</v>
+        <v>0.777141953699892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05929606701629573</v>
+        <v>0.2433846452351869</v>
       </c>
       <c r="H16" t="n">
-        <v>1.47138960653377</v>
+        <v>1.258651462308457</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2074219298569615</v>
+        <v>0.8419634492325389</v>
       </c>
       <c r="J16" t="n">
-        <v>0.15485907188918</v>
+        <v>0.6598653693541811</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1811405008730708</v>
+        <v>0.7509143747931362</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2087390386798808</v>
+        <v>0.3943119317546692</v>
       </c>
       <c r="M16" t="n">
-        <v>0.243507837689664</v>
+        <v>0.4933402935451217</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004343195992409</v>
+        <v>1.017826936405561</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2538744704708277</v>
+        <v>0.5143428111965316</v>
       </c>
       <c r="P16" t="n">
-        <v>151.6504245973611</v>
+        <v>148.8262243698168</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.6283598127397</v>
+        <v>237.8041595851954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_15</t>
+          <t>model_16_9_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9910656290979872</v>
+        <v>0.962857914207766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7798715623657502</v>
+        <v>0.8109575090282444</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5919357792731669</v>
+        <v>0.804361821017376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9334538947323114</v>
+        <v>0.6435901218574875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9038258906582931</v>
+        <v>0.7719719541598408</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05974417936075439</v>
+        <v>0.248369298716248</v>
       </c>
       <c r="H17" t="n">
-        <v>1.471999876058484</v>
+        <v>1.264128007588762</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2098080824397452</v>
+        <v>0.8522770474436211</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1568546648154683</v>
+        <v>0.684392059372297</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1833313736276067</v>
+        <v>0.7683345534079591</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2105413859688978</v>
+        <v>0.3805584293304588</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2444262247811278</v>
+        <v>0.4983666308213743</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004376018400986</v>
+        <v>1.018192042020686</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2548319552020985</v>
+        <v>0.5195831300565869</v>
       </c>
       <c r="P17" t="n">
-        <v>151.6353670189445</v>
+        <v>148.7856770654236</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.6133022343231</v>
+        <v>237.7636122808023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_16</t>
+          <t>model_16_9_5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9910007231332533</v>
+        <v>0.9707099265217205</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7797852727601919</v>
+        <v>0.8106929894233494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5876944132036503</v>
+        <v>0.8799429787337507</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9326849664711452</v>
+        <v>0.8809589280085581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9027785045930332</v>
+        <v>0.8884687518420096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06017820584579528</v>
+        <v>0.1958628562176424</v>
       </c>
       <c r="H18" t="n">
-        <v>1.472576895048178</v>
+        <v>1.265896851404695</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2119888001718347</v>
+        <v>0.5230157229114412</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1586670922173005</v>
+        <v>0.2285872794399155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1853279476263352</v>
+        <v>0.3758016318947463</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2121513714976316</v>
+        <v>0.8719870809111557</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2453124657366504</v>
+        <v>0.4425639572057833</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00440780907759</v>
+        <v>1.014346158438341</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2557559252698695</v>
+        <v>0.4614048210977211</v>
       </c>
       <c r="P18" t="n">
-        <v>151.6208900427107</v>
+        <v>149.2606811556809</v>
       </c>
       <c r="Q18" t="n">
-        <v>240.5988252580893</v>
+        <v>238.2386163710595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_17</t>
+          <t>model_16_9_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9909386127075097</v>
+        <v>0.9621577332825815</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7797043271445619</v>
+        <v>0.8101812335817549</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5838257511647642</v>
+        <v>0.8021688681374479</v>
       </c>
       <c r="E19" t="n">
-        <v>0.931987587247362</v>
+        <v>0.6317728913874361</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9018256254630714</v>
+        <v>0.7671870513856953</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06059353854873437</v>
+        <v>0.2530514117869935</v>
       </c>
       <c r="H19" t="n">
-        <v>1.473118178752617</v>
+        <v>1.269318965073857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2139778904246885</v>
+        <v>0.8618304148661123</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1603108726302303</v>
+        <v>0.7070839632544944</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1871443682929023</v>
+        <v>0.7844571585135199</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2135861213758892</v>
+        <v>0.3681466801446429</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2461575482262008</v>
+        <v>0.503042157067371</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004438230510607</v>
+        <v>1.01853498777996</v>
       </c>
       <c r="O19" t="n">
-        <v>0.256636984670562</v>
+        <v>0.5244577031345492</v>
       </c>
       <c r="P19" t="n">
-        <v>151.6071340324</v>
+        <v>148.7483252045089</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.5850692477787</v>
+        <v>237.7262604198876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_18</t>
+          <t>model_16_9_23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9908797889414127</v>
+        <v>0.9615035205176432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7796287479793987</v>
+        <v>0.8094508792797981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5803055043086149</v>
+        <v>0.8001420383251134</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9313560419189253</v>
+        <v>0.6208758147235941</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9009604211750599</v>
+        <v>0.7627717086894759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06098689334348408</v>
+        <v>0.2574261355585086</v>
       </c>
       <c r="H20" t="n">
-        <v>1.473623576978073</v>
+        <v>1.274202847654014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2157878414203619</v>
+        <v>0.8706600847041277</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1617994771159359</v>
+        <v>0.7280089521408083</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1887936592681489</v>
+        <v>0.7993345405747636</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2148626831986886</v>
+        <v>0.35694608953712</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2469552456286039</v>
+        <v>0.5073717922377126</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004467042151145</v>
+        <v>1.018855418521971</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2574686417028466</v>
+        <v>0.5289716598376726</v>
       </c>
       <c r="P20" t="n">
-        <v>151.5941926022336</v>
+        <v>148.7140449044566</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.5721278176123</v>
+        <v>237.6919801198352</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_19</t>
+          <t>model_16_9_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.990824364165956</v>
+        <v>0.9608950293713798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7795585720367526</v>
+        <v>0.8087679004366788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5771002367782339</v>
+        <v>0.7982733907995356</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9307837880347202</v>
+        <v>0.6108549102833662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9001743592390771</v>
+        <v>0.7587083072796494</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0613575190721705</v>
+        <v>0.2614951186554161</v>
       </c>
       <c r="H21" t="n">
-        <v>1.474092843829678</v>
+        <v>1.278769930322781</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2174358443573943</v>
+        <v>0.8788006501300294</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1631483267719041</v>
+        <v>0.7472514811704841</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1902920855646492</v>
+        <v>0.8130260656502567</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2160124823352288</v>
+        <v>0.3468518247279592</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2477044994992431</v>
+        <v>0.5113659341952846</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00449418897994</v>
+        <v>1.019153455001773</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2582497928619282</v>
+        <v>0.5331358406873921</v>
       </c>
       <c r="P21" t="n">
-        <v>151.5820751101431</v>
+        <v>148.6826793247222</v>
       </c>
       <c r="Q21" t="n">
-        <v>240.5600103255217</v>
+        <v>237.6606145401008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_20</t>
+          <t>model_16_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9907725687599238</v>
+        <v>0.9692507745251943</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7794936231725207</v>
+        <v>0.806453360301962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5741916660294706</v>
+        <v>0.8923633602306814</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9302660518580803</v>
+        <v>0.8797399701324866</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8994620157408739</v>
+        <v>0.8961506113337609</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06170387519080343</v>
+        <v>0.2056202123371904</v>
       </c>
       <c r="H22" t="n">
-        <v>1.474527157183859</v>
+        <v>1.29424727086111</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2189312992893444</v>
+        <v>0.4689076437758871</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1643686736896239</v>
+        <v>0.2309279695898084</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1916499864894842</v>
+        <v>0.3499178066828478</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2170364739202889</v>
+        <v>0.9204060362265969</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2484026473103768</v>
+        <v>0.4534536496017982</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004519558158405</v>
+        <v>1.015060845130517</v>
       </c>
       <c r="O22" t="n">
-        <v>0.258977662270747</v>
+        <v>0.4727581102438053</v>
       </c>
       <c r="P22" t="n">
-        <v>151.5708170861217</v>
+        <v>149.1634488824002</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.5487523015003</v>
+        <v>238.1413840977789</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_21</t>
+          <t>model_16_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9907243709783584</v>
+        <v>0.9671903443250037</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7794337597755207</v>
+        <v>0.8010887410243495</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5715520062947881</v>
+        <v>0.9065962811279368</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9297978483905012</v>
+        <v>0.8750520676357937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8988165610694021</v>
+        <v>0.9040156860657435</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06202617397806181</v>
+        <v>0.2193983185732731</v>
       </c>
       <c r="H23" t="n">
-        <v>1.474927463995244</v>
+        <v>1.330120504672305</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2202884923954704</v>
+        <v>0.4069034283313712</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1654722679221812</v>
+        <v>0.2399298616264968</v>
       </c>
       <c r="K23" t="n">
-        <v>0.192880380951624</v>
+        <v>0.3234166424973072</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2179532071702842</v>
+        <v>0.96637537083778</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2490505450266307</v>
+        <v>0.4683997422856604</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00454316523509</v>
+        <v>1.016070035432651</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2596531423341151</v>
+        <v>0.4883404890358966</v>
       </c>
       <c r="P23" t="n">
-        <v>151.5603976441708</v>
+        <v>149.0337327898405</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.5383328595495</v>
+        <v>238.0116680052192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_22</t>
+          <t>model_16_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9906797312583113</v>
+        <v>0.9643766347322785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7793787577561805</v>
+        <v>0.7945177128255636</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5691593388636015</v>
+        <v>0.9217146178685269</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9293748528676042</v>
+        <v>0.8686786041390712</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8982323667036872</v>
+        <v>0.9119728420943577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0623246799915633</v>
+        <v>0.2382136075757677</v>
       </c>
       <c r="H24" t="n">
-        <v>1.475295262751832</v>
+        <v>1.374061000494389</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2215186932809074</v>
+        <v>0.3410419923553544</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1664693032963108</v>
+        <v>0.2521684332132023</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1939939982886091</v>
+        <v>0.2966052127842784</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2187730002164142</v>
+        <v>1.008436620448154</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2496491137407928</v>
+        <v>0.4880713140267186</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004565029587766</v>
+        <v>1.017448178906639</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2602771933576471</v>
+        <v>0.5088495203117388</v>
       </c>
       <c r="P24" t="n">
-        <v>151.5507955681946</v>
+        <v>148.8691749940202</v>
       </c>
       <c r="Q24" t="n">
-        <v>240.5287307835733</v>
+        <v>237.8471102093989</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_23</t>
+          <t>model_16_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.990638500065501</v>
+        <v>0.9605441211113972</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7793282706367231</v>
+        <v>0.7865980826529126</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5669902665443952</v>
+        <v>0.9358908518327795</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9289926950483803</v>
+        <v>0.862618216771472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8977035741224995</v>
+        <v>0.9194101978801218</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06260039316773816</v>
+        <v>0.2638416438057039</v>
       </c>
       <c r="H25" t="n">
-        <v>1.475632870352116</v>
+        <v>1.42701960392545</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2226339317185121</v>
+        <v>0.2792847275425576</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1673700808309216</v>
+        <v>0.2638058238846432</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1950020062747169</v>
+        <v>0.2715452364329624</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2195090688988332</v>
+        <v>1.045937042085717</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2502007057698642</v>
+        <v>0.5136551798684638</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004585224457714</v>
+        <v>1.019325328435234</v>
       </c>
       <c r="O25" t="n">
-        <v>0.260852267801349</v>
+        <v>0.5355225442882703</v>
       </c>
       <c r="P25" t="n">
-        <v>151.541967440522</v>
+        <v>148.6648123797551</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.5199026559007</v>
+        <v>237.6427475951338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_9_24</t>
+          <t>model_16_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9906005192792752</v>
+        <v>0.9552770563351655</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7792820756878004</v>
+        <v>0.7770543591899784</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5650271290084088</v>
+        <v>0.9465402356087111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9286468266859084</v>
+        <v>0.8581738498768537</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8972249900922581</v>
+        <v>0.9250280764520847</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06285437086011605</v>
+        <v>0.2990625302169689</v>
       </c>
       <c r="H26" t="n">
-        <v>1.47594177618827</v>
+        <v>1.490838526666897</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2236432878469597</v>
+        <v>0.2328918127810115</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1681853211195543</v>
+        <v>0.2723400694208952</v>
       </c>
       <c r="K26" t="n">
-        <v>0.195914304483257</v>
+        <v>0.2526159411009533</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2201684308829887</v>
+        <v>1.079313045763769</v>
       </c>
       <c r="M26" t="n">
-        <v>0.250707739928619</v>
+        <v>0.5468660989830773</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004603827291784</v>
+        <v>1.021905115264409</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2613808874539474</v>
+        <v>0.570147320985673</v>
       </c>
       <c r="P26" t="n">
-        <v>151.5338696041005</v>
+        <v>148.4142051925918</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.5118048194792</v>
+        <v>237.3921404079704</v>
       </c>
     </row>
   </sheetData>
